--- a/academias/Matemáticas - Estadisticos 20202.xlsx
+++ b/academias/Matemáticas - Estadisticos 20202.xlsx
@@ -1160,25 +1160,25 @@
         <v>33</v>
       </c>
       <c r="E18">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="H18">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,25 +1195,25 @@
         <v>38</v>
       </c>
       <c r="E19">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F19">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>55.26</v>
+        <v>100</v>
       </c>
       <c r="H19">
-        <v>44.74</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>8.4</v>
+        <v>7.3</v>
       </c>
       <c r="J19">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>44.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,25 +1230,25 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>89.73999999999999</v>
+        <v>97.44</v>
       </c>
       <c r="H20">
-        <v>10.26</v>
+        <v>2.56</v>
       </c>
       <c r="I20">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>7.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,25 +1265,25 @@
         <v>34</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>73.53</v>
+        <v>100</v>
       </c>
       <c r="H21">
-        <v>26.47</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="J21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>26.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2577,25 +2577,25 @@
         <v>33</v>
       </c>
       <c r="E18">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="H18">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2612,25 +2612,25 @@
         <v>38</v>
       </c>
       <c r="E19">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F19">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>55.26</v>
+        <v>100</v>
       </c>
       <c r="H19">
-        <v>44.74</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="J19">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>44.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2647,25 +2647,25 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>89.73999999999999</v>
+        <v>97.44</v>
       </c>
       <c r="H20">
-        <v>10.26</v>
+        <v>2.56</v>
       </c>
       <c r="I20">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>7.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2682,25 +2682,25 @@
         <v>34</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>73.53</v>
+        <v>100</v>
       </c>
       <c r="H21">
-        <v>26.47</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>26.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3784,19 +3784,19 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>72.22</v>
+        <v>88.89</v>
       </c>
       <c r="H12">
-        <v>27.78</v>
+        <v>11.11</v>
       </c>
       <c r="I12">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3994,25 +3994,25 @@
         <v>33</v>
       </c>
       <c r="E18">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="H18">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -4029,25 +4029,25 @@
         <v>38</v>
       </c>
       <c r="E19">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F19">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>55.26</v>
+        <v>100</v>
       </c>
       <c r="H19">
-        <v>44.74</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="J19">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>44.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4064,25 +4064,25 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>89.73999999999999</v>
+        <v>97.44</v>
       </c>
       <c r="H20">
-        <v>10.26</v>
+        <v>2.56</v>
       </c>
       <c r="I20">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>7.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4099,25 +4099,25 @@
         <v>34</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>73.53</v>
+        <v>100</v>
       </c>
       <c r="H21">
-        <v>26.47</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>26.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">

--- a/academias/Matemáticas - Estadisticos 20202.xlsx
+++ b/academias/Matemáticas - Estadisticos 20202.xlsx
@@ -985,25 +985,25 @@
         <v>36</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>63.89</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>36.11</v>
       </c>
       <c r="I13">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>30.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2262,25 +2262,25 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="H9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I9">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2402,25 +2402,25 @@
         <v>36</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>36.11</v>
+        <v>61.11</v>
       </c>
       <c r="H13">
-        <v>63.89</v>
+        <v>38.89</v>
       </c>
       <c r="I13">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>55.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3679,19 +3679,19 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I9">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -3819,25 +3819,25 @@
         <v>36</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F13">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>69.44</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>30.56</v>
       </c>
       <c r="I13">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>30.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4624,16 +4624,16 @@
         <v>36</v>
       </c>
       <c r="E36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>97.22</v>
+        <v>100</v>
       </c>
       <c r="H36">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>7.3</v>
@@ -4764,16 +4764,16 @@
         <v>29</v>
       </c>
       <c r="E40">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>82.76000000000001</v>
+        <v>86.20999999999999</v>
       </c>
       <c r="H40">
-        <v>17.24</v>
+        <v>13.79</v>
       </c>
       <c r="I40">
         <v>7</v>

--- a/academias/Matemáticas - Estadisticos 20202.xlsx
+++ b/academias/Matemáticas - Estadisticos 20202.xlsx
@@ -3079,13 +3079,13 @@
         <v>48.39</v>
       </c>
       <c r="I32">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="J32">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>22.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3114,13 +3114,13 @@
         <v>33.33</v>
       </c>
       <c r="I33">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>14.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3184,13 +3184,13 @@
         <v>43.48</v>
       </c>
       <c r="I35">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>17.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -4484,19 +4484,19 @@
         <v>31</v>
       </c>
       <c r="E32">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G32">
-        <v>87.09999999999999</v>
+        <v>77.42</v>
       </c>
       <c r="H32">
-        <v>12.9</v>
+        <v>22.58</v>
       </c>
       <c r="I32">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -4589,16 +4589,16 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35">
-        <v>86.95999999999999</v>
+        <v>82.61</v>
       </c>
       <c r="H35">
-        <v>13.04</v>
+        <v>17.39</v>
       </c>
       <c r="I35">
         <v>6.7</v>
